--- a/Sniper GOAT.xlsx
+++ b/Sniper GOAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAECE21-4C7F-4511-996A-B6F0655630E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A4364-124C-4B15-84ED-4A97B4314692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{E63FEAF0-1E5E-4907-9FA7-7687370CAB07}"/>
+    <workbookView xWindow="-37470" yWindow="930" windowWidth="35840" windowHeight="15410" activeTab="1" xr2:uid="{E63FEAF0-1E5E-4907-9FA7-7687370CAB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Case DE" sheetId="35" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="735">
   <si>
     <t>Level 1</t>
   </si>
@@ -2343,6 +2343,39 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Slope 1</t>
+  </si>
+  <si>
+    <t>Slope 2</t>
+  </si>
+  <si>
+    <t>Slope 3</t>
+  </si>
+  <si>
+    <t>Slope 4</t>
+  </si>
+  <si>
+    <t>Slope 5</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2770,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2862,6 +2895,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2889,11 +2928,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3284,25 +3320,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="60.75" customHeight="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -3315,67 +3351,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="2:18" ht="48.75" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -3437,16 +3473,16 @@
         <f>IF(ISBLANK(E11),0,IF(Answers!E11=E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="2:18" ht="31.5" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -3463,16 +3499,16 @@
         <f>IF(ISBLANK(E12),0,IF(Answers!E12=E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="50" t="s">
         <v>591</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="2:18" ht="42" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -3489,16 +3525,16 @@
         <f>IF(ISBLANK(E13),0,IF(Answers!E13=E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="2:18" ht="31.5" customHeight="1">
       <c r="B14" s="13" t="s">
@@ -3515,16 +3551,16 @@
         <f>IF(ISBLANK(E14),0,IF(Answers!E14=E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="2:18" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -3558,17 +3594,17 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="51" t="str" cm="1">
+      <c r="I17" s="53" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>0/270</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
@@ -3580,14 +3616,14 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
@@ -7365,10 +7401,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:T159"/>
+  <dimension ref="A2:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.703125" defaultRowHeight="14.4"/>
@@ -7400,25 +7436,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="60.75" customHeight="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -7431,67 +7467,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>660</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="2:18" ht="48.75" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>663</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>661</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -7552,28 +7588,28 @@
         <f>IF(ISBLANK(E11),0,IF(Answers!E11=E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="50" t="s">
         <v>673</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="N11" s="50" t="s">
+      <c r="N11" s="52" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7592,28 +7628,28 @@
         <f>IF(ISBLANK(E12),0,IF(Answers!E12=E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="50" t="s">
         <v>671</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="52" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7632,28 +7668,28 @@
         <f>IF(ISBLANK(E13),0,IF(Answers!E13=E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="50" t="s">
         <v>674</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="52" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7672,28 +7708,28 @@
         <f>IF(ISBLANK(E14),0,IF(Answers!E14=E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="52" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7729,17 +7765,17 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="51" t="str" cm="1">
+      <c r="I17" s="53" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
-        <v>10/270</v>
-      </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+        <v>30/270</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
@@ -7751,14 +7787,14 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
@@ -7839,15 +7875,15 @@
       <c r="H26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="48">
         <f ca="1">COLUMNS(INDIRECT(G26&amp;":"&amp;H26))-1</f>
         <v>3</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="49">
         <f ca="1">ROWS(INDIRECT(G26&amp;":"&amp;H26))-1</f>
         <v>1</v>
       </c>
-      <c r="K26" s="57" t="str" cm="1">
+      <c r="K26" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">ADDRESS(ROW(INDIRECT(H26))+J26,COLUMN(INDIRECT(H26))+I26,4)</f>
         <v>G3</v>
       </c>
@@ -7863,15 +7899,15 @@
       <c r="H27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="48">
         <f t="shared" ref="I27:I37" ca="1" si="0">COLUMNS(INDIRECT(G27&amp;":"&amp;H27))-1</f>
         <v>3</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="49">
         <f t="shared" ref="J27:J37" ca="1" si="1">ROWS(INDIRECT(G27&amp;":"&amp;H27))-1</f>
         <v>1</v>
       </c>
-      <c r="K27" s="57" t="str" cm="1">
+      <c r="K27" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">ADDRESS(ROW(INDIRECT(H27))+J27,COLUMN(INDIRECT(H27))+I27,4)</f>
         <v>G3</v>
       </c>
@@ -7899,15 +7935,15 @@
       <c r="H28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="K28" s="57" t="str" cm="1">
+      <c r="K28" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">ADDRESS(ROW(INDIRECT(H28))+J28,COLUMN(INDIRECT(H28))+I28,4)</f>
         <v>I19</v>
       </c>
@@ -7935,15 +7971,15 @@
       <c r="H29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="K29" s="57" t="str" cm="1">
+      <c r="K29" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">ADDRESS(ROW(INDIRECT(H29))+J29,COLUMN(INDIRECT(H29))+I29,4)</f>
         <v>E19</v>
       </c>
@@ -7971,15 +8007,15 @@
       <c r="H30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K30" s="57" t="str" cm="1">
+      <c r="K30" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">ADDRESS(ROW(INDIRECT(H30))+J30,COLUMN(INDIRECT(H30))+I30,4)</f>
         <v>M9</v>
       </c>
@@ -8007,15 +8043,15 @@
       <c r="H31" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K31" s="57" t="str" cm="1">
+      <c r="K31" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">ADDRESS(ROW(INDIRECT(H31))+J31,COLUMN(INDIRECT(H31))+I31,4)</f>
         <v>C5</v>
       </c>
@@ -8043,20 +8079,20 @@
       <c r="H32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="K32" s="57" t="str" cm="1">
+      <c r="K32" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">ADDRESS(ROW(INDIRECT(H32))+J32,COLUMN(INDIRECT(H32))+I32,4)</f>
         <v>A15</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="24.75" customHeight="1">
+    <row r="33" spans="2:24" ht="24.75" customHeight="1">
       <c r="B33" s="11">
         <v>6</v>
       </c>
@@ -8079,20 +8115,20 @@
       <c r="H33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="J33" s="58">
+      <c r="J33" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="K33" s="57" t="str" cm="1">
+      <c r="K33" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">ADDRESS(ROW(INDIRECT(H33))+J33,COLUMN(INDIRECT(H33))+I33,4)</f>
         <v>K11</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="24.75" customHeight="1">
+    <row r="34" spans="2:24" ht="24.75" customHeight="1">
       <c r="B34" s="11">
         <v>7</v>
       </c>
@@ -8115,20 +8151,20 @@
       <c r="H34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="K34" s="57" t="str" cm="1">
+      <c r="K34" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">ADDRESS(ROW(INDIRECT(H34))+J34,COLUMN(INDIRECT(H34))+I34,4)</f>
         <v>Q15</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="24.75" customHeight="1">
+    <row r="35" spans="2:24" ht="24.75" customHeight="1">
       <c r="B35" s="11">
         <v>8</v>
       </c>
@@ -8151,20 +8187,20 @@
       <c r="H35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="J35" s="58">
+      <c r="J35" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="K35" s="57" t="str" cm="1">
+      <c r="K35" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">ADDRESS(ROW(INDIRECT(H35))+J35,COLUMN(INDIRECT(H35))+I35,4)</f>
         <v>I7</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="24.75" customHeight="1">
+    <row r="36" spans="2:24" ht="24.75" customHeight="1">
       <c r="B36" s="11">
         <v>9</v>
       </c>
@@ -8187,20 +8223,20 @@
       <c r="H36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="K36" s="57" t="str" cm="1">
+      <c r="K36" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">ADDRESS(ROW(INDIRECT(H36))+J36,COLUMN(INDIRECT(H36))+I36,4)</f>
         <v>A3</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="24.75" customHeight="1">
+    <row r="37" spans="2:24" ht="24.75" customHeight="1">
       <c r="B37" s="11">
         <v>10</v>
       </c>
@@ -8223,29 +8259,29 @@
       <c r="H37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="48">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J37" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K37" s="57" t="str" cm="1">
+      <c r="K37" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">ADDRESS(ROW(INDIRECT(H37))+J37,COLUMN(INDIRECT(H37))+I37,4)</f>
         <v>I5</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15" customHeight="1">
+    <row r="38" spans="2:24" ht="15" customHeight="1">
       <c r="I38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:13" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="2:24" ht="15" customHeight="1" thickBot="1">
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:13" ht="25.5" customHeight="1" thickBot="1">
+    <row r="40" spans="2:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="B40" s="29" t="s">
         <v>2</v>
       </c>
@@ -8254,24 +8290,24 @@
       </c>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="2:13" ht="14.85" customHeight="1"/>
-    <row r="42" spans="2:13" ht="14.85" customHeight="1">
+    <row r="41" spans="2:24" ht="14.85" customHeight="1"/>
+    <row r="42" spans="2:24" ht="14.85" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="14.85" customHeight="1">
+    <row r="43" spans="2:24" ht="14.85" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="14.7" customHeight="1">
+    <row r="44" spans="2:24" ht="14.7" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="14.7" customHeight="1" thickBot="1">
+    <row r="45" spans="2:24" ht="14.7" customHeight="1" thickBot="1">
       <c r="B45" s="2"/>
       <c r="C45" s="26"/>
       <c r="D45" s="2"/>
@@ -8279,7 +8315,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:13" ht="25.5" customHeight="1" thickBot="1">
+    <row r="46" spans="2:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="B46" s="22" t="s">
         <v>665</v>
       </c>
@@ -8306,14 +8342,47 @@
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
     </row>
-    <row r="47" spans="2:13" ht="15" customHeight="1">
+    <row r="47" spans="2:24" ht="15" customHeight="1">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N47" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="R47" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="X47" s="59" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="24.75" customHeight="1">
       <c r="B48" s="8" t="s">
         <v>685</v>
       </c>
@@ -8351,8 +8420,119 @@
       <c r="M48" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N48" s="42" cm="1">
+        <f t="array" aca="1" ref="N48" ca="1">COLUMN(INDIRECT(G48))</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="42" cm="1">
+        <f t="array" aca="1" ref="O48" ca="1">ROW(INDIRECT(G48))</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="42" cm="1">
+        <f t="array" aca="1" ref="P48" ca="1">COLUMN(INDIRECT(H48))</f>
+        <v>4</v>
+      </c>
+      <c r="Q48" s="42" cm="1">
+        <f t="array" aca="1" ref="Q48" ca="1">ROW(INDIRECT(H48))</f>
+        <v>2</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" ref="R48:R59" ca="1" si="2">IFERROR((Q48-O48)/(P48-N48),1E+300)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S48" s="2" cm="1">
+        <f t="array" aca="1" ref="S48" ca="1">IFERROR((ROW(INDIRECT(I48))-$O$48)/(COLUMN(INDIRECT(I48))-$N$48),1E+300)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T48" s="2" cm="1">
+        <f t="array" aca="1" ref="T48" ca="1">IFERROR((ROW(INDIRECT(J48))-$O$48)/(COLUMN(INDIRECT(J48))-$N$48),1E+300)</f>
+        <v>1.6875</v>
+      </c>
+      <c r="U48" s="2" cm="1">
+        <f t="array" aca="1" ref="U48" ca="1">IFERROR((ROW(INDIRECT(K48))-$O$48)/(COLUMN(INDIRECT(K48))-$N$48),1E+300)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V48" s="2" cm="1">
+        <f t="array" aca="1" ref="V48" ca="1">IFERROR((ROW(INDIRECT(L48))-$O$48)/(COLUMN(INDIRECT(L48))-$N$48),1E+300)</f>
+        <v>49.222222222222221</v>
+      </c>
+      <c r="W48" s="2" cm="1">
+        <f t="array" aca="1" ref="W48" ca="1">IFERROR((ROW(INDIRECT(M48))-$O$48)/(COLUMN(INDIRECT(M48))-$N$48),1E+300)</f>
+        <v>0.5979905580438204</v>
+      </c>
+      <c r="X48" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X48" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I48:M48,IFERROR($R48=S48:W48,0)))</f>
+        <v>P6; KX104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="18">
+      <c r="G49" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N49" s="42" cm="1">
+        <f t="array" aca="1" ref="N49" ca="1">COLUMN(INDIRECT(G49))</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="42" cm="1">
+        <f t="array" aca="1" ref="O49" ca="1">ROW(INDIRECT(G49))</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="42" cm="1">
+        <f t="array" aca="1" ref="P49" ca="1">COLUMN(INDIRECT(H49))</f>
+        <v>4</v>
+      </c>
+      <c r="Q49" s="42" cm="1">
+        <f t="array" aca="1" ref="Q49" ca="1">ROW(INDIRECT(H49))</f>
+        <v>2</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S49" s="2" cm="1">
+        <f t="array" aca="1" ref="S49" ca="1">IFERROR((ROW(INDIRECT(I49))-$O$48)/(COLUMN(INDIRECT(I49))-$N$48),1E+300)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T49" s="2" cm="1">
+        <f t="array" aca="1" ref="T49" ca="1">IFERROR((ROW(INDIRECT(J49))-$O$48)/(COLUMN(INDIRECT(J49))-$N$48),1E+300)</f>
+        <v>1.6875</v>
+      </c>
+      <c r="U49" s="2" cm="1">
+        <f t="array" aca="1" ref="U49" ca="1">IFERROR((ROW(INDIRECT(K49))-$O$48)/(COLUMN(INDIRECT(K49))-$N$48),1E+300)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V49" s="2" cm="1">
+        <f t="array" aca="1" ref="V49" ca="1">IFERROR((ROW(INDIRECT(L49))-$O$48)/(COLUMN(INDIRECT(L49))-$N$48),1E+300)</f>
+        <v>49.222222222222221</v>
+      </c>
+      <c r="W49" s="2" cm="1">
+        <f t="array" aca="1" ref="W49" ca="1">IFERROR((ROW(INDIRECT(M49))-$O$48)/(COLUMN(INDIRECT(M49))-$N$48),1E+300)</f>
+        <v>0.5979905580438204</v>
+      </c>
+      <c r="X49" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X49" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I49:M49,IFERROR($R49=S49:W49,0)))</f>
+        <v>P6; KX104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="24.75" customHeight="1">
       <c r="B50" s="11">
         <v>11</v>
       </c>
@@ -8362,10 +8542,12 @@
       <c r="D50" s="10">
         <v>2</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="35" t="s">
+        <v>610</v>
+      </c>
       <c r="F50" s="25">
         <f>IF(ISBLANK(E50),0,IF(Answers!E50=E50,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="27" t="s">
         <v>33</v>
@@ -8388,8 +8570,52 @@
       <c r="M50" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N50" s="42" cm="1">
+        <f t="array" aca="1" ref="N50" ca="1">COLUMN(INDIRECT(G50))</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="42" cm="1">
+        <f t="array" aca="1" ref="O50" ca="1">ROW(INDIRECT(G50))</f>
+        <v>1</v>
+      </c>
+      <c r="P50" s="42" cm="1">
+        <f t="array" aca="1" ref="P50" ca="1">COLUMN(INDIRECT(H50))</f>
+        <v>5</v>
+      </c>
+      <c r="Q50" s="42" cm="1">
+        <f t="array" aca="1" ref="Q50" ca="1">ROW(INDIRECT(H50))</f>
+        <v>10</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="S50" s="2" cm="1">
+        <f t="array" aca="1" ref="S50" ca="1">IFERROR((ROW(INDIRECT(I50))-$O$48)/(COLUMN(INDIRECT(I50))-$N$48),1E+300)</f>
+        <v>2.25</v>
+      </c>
+      <c r="T50" s="2" cm="1">
+        <f t="array" aca="1" ref="T50" ca="1">IFERROR((ROW(INDIRECT(J50))-$O$48)/(COLUMN(INDIRECT(J50))-$N$48),1E+300)</f>
+        <v>2.25</v>
+      </c>
+      <c r="U50" s="2" cm="1">
+        <f t="array" aca="1" ref="U50" ca="1">IFERROR((ROW(INDIRECT(K50))-$O$48)/(COLUMN(INDIRECT(K50))-$N$48),1E+300)</f>
+        <v>2.25</v>
+      </c>
+      <c r="V50" s="2" cm="1">
+        <f t="array" aca="1" ref="V50" ca="1">IFERROR((ROW(INDIRECT(L50))-$O$48)/(COLUMN(INDIRECT(L50))-$N$48),1E+300)</f>
+        <v>0.64351851851851849</v>
+      </c>
+      <c r="W50" s="2" cm="1">
+        <f t="array" aca="1" ref="W50" ca="1">IFERROR((ROW(INDIRECT(M50))-$O$48)/(COLUMN(INDIRECT(M50))-$N$48),1E+300)</f>
+        <v>1.945736434108527</v>
+      </c>
+      <c r="X50" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X50" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I50:M50,IFERROR($R50=S50:W50,0)))</f>
+        <v>AWC2872; BZM4591; YG1477</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="24.75" customHeight="1">
       <c r="B51" s="11">
         <v>12</v>
       </c>
@@ -8399,10 +8625,12 @@
       <c r="D51" s="10">
         <v>2</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="35" t="s">
+        <v>611</v>
+      </c>
       <c r="F51" s="25">
         <f>IF(ISBLANK(E51),0,IF(Answers!E51=E51,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>33</v>
@@ -8425,8 +8653,52 @@
       <c r="M51" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N51" s="42" cm="1">
+        <f t="array" aca="1" ref="N51" ca="1">COLUMN(INDIRECT(G51))</f>
+        <v>1</v>
+      </c>
+      <c r="O51" s="42" cm="1">
+        <f t="array" aca="1" ref="O51" ca="1">ROW(INDIRECT(G51))</f>
+        <v>1</v>
+      </c>
+      <c r="P51" s="42" cm="1">
+        <f t="array" aca="1" ref="P51" ca="1">COLUMN(INDIRECT(H51))</f>
+        <v>3</v>
+      </c>
+      <c r="Q51" s="42" cm="1">
+        <f t="array" aca="1" ref="Q51" ca="1">ROW(INDIRECT(H51))</f>
+        <v>10</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="S51" s="2" cm="1">
+        <f t="array" aca="1" ref="S51" ca="1">IFERROR((ROW(INDIRECT(I51))-$O$48)/(COLUMN(INDIRECT(I51))-$N$48),1E+300)</f>
+        <v>4.5</v>
+      </c>
+      <c r="T51" s="2" cm="1">
+        <f t="array" aca="1" ref="T51" ca="1">IFERROR((ROW(INDIRECT(J51))-$O$48)/(COLUMN(INDIRECT(J51))-$N$48),1E+300)</f>
+        <v>4.5</v>
+      </c>
+      <c r="U51" s="2" cm="1">
+        <f t="array" aca="1" ref="U51" ca="1">IFERROR((ROW(INDIRECT(K51))-$O$48)/(COLUMN(INDIRECT(K51))-$N$48),1E+300)</f>
+        <v>0.42957746478873238</v>
+      </c>
+      <c r="V51" s="2" cm="1">
+        <f t="array" aca="1" ref="V51" ca="1">IFERROR((ROW(INDIRECT(L51))-$O$48)/(COLUMN(INDIRECT(L51))-$N$48),1E+300)</f>
+        <v>1.078909612625538</v>
+      </c>
+      <c r="W51" s="2" cm="1">
+        <f t="array" aca="1" ref="W51" ca="1">IFERROR((ROW(INDIRECT(M51))-$O$48)/(COLUMN(INDIRECT(M51))-$N$48),1E+300)</f>
+        <v>4.5317460317460316</v>
+      </c>
+      <c r="X51" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X51" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I51:M51,IFERROR($R51=S51:W51,0)))</f>
+        <v>BKA7372; XM2863</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="24.75" customHeight="1">
       <c r="B52" s="11">
         <v>13</v>
       </c>
@@ -8436,10 +8708,12 @@
       <c r="D52" s="10">
         <v>2</v>
       </c>
-      <c r="E52" s="35"/>
+      <c r="E52" s="35" t="s">
+        <v>612</v>
+      </c>
       <c r="F52" s="25">
         <f>IF(ISBLANK(E52),0,IF(Answers!E52=E52,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>33</v>
@@ -8462,8 +8736,52 @@
       <c r="M52" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N52" s="42" cm="1">
+        <f t="array" aca="1" ref="N52" ca="1">COLUMN(INDIRECT(G52))</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="42" cm="1">
+        <f t="array" aca="1" ref="O52" ca="1">ROW(INDIRECT(G52))</f>
+        <v>1</v>
+      </c>
+      <c r="P52" s="42" cm="1">
+        <f t="array" aca="1" ref="P52" ca="1">COLUMN(INDIRECT(H52))</f>
+        <v>7</v>
+      </c>
+      <c r="Q52" s="42" cm="1">
+        <f t="array" aca="1" ref="Q52" ca="1">ROW(INDIRECT(H52))</f>
+        <v>5</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S52" s="2" cm="1">
+        <f t="array" aca="1" ref="S52" ca="1">IFERROR((ROW(INDIRECT(I52))-$O$48)/(COLUMN(INDIRECT(I52))-$N$48),1E+300)</f>
+        <v>0.55778894472361806</v>
+      </c>
+      <c r="T52" s="2" cm="1">
+        <f t="array" aca="1" ref="T52" ca="1">IFERROR((ROW(INDIRECT(J52))-$O$48)/(COLUMN(INDIRECT(J52))-$N$48),1E+300)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U52" s="2" cm="1">
+        <f t="array" aca="1" ref="U52" ca="1">IFERROR((ROW(INDIRECT(K52))-$O$48)/(COLUMN(INDIRECT(K52))-$N$48),1E+300)</f>
+        <v>0.66733466933867736</v>
+      </c>
+      <c r="V52" s="2" cm="1">
+        <f t="array" aca="1" ref="V52" ca="1">IFERROR((ROW(INDIRECT(L52))-$O$48)/(COLUMN(INDIRECT(L52))-$N$48),1E+300)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W52" s="2" cm="1">
+        <f t="array" aca="1" ref="W52" ca="1">IFERROR((ROW(INDIRECT(M52))-$O$48)/(COLUMN(INDIRECT(M52))-$N$48),1E+300)</f>
+        <v>1.4259259259259258</v>
+      </c>
+      <c r="X52" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X52" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I52:M52,IFERROR($R52=S52:W52,0)))</f>
+        <v>HNG3853; BWS1313</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="24.75" customHeight="1">
       <c r="B53" s="11">
         <v>14</v>
       </c>
@@ -8473,10 +8791,12 @@
       <c r="D53" s="10">
         <v>2</v>
       </c>
-      <c r="E53" s="35"/>
+      <c r="E53" s="35" t="s">
+        <v>613</v>
+      </c>
       <c r="F53" s="25">
         <f>IF(ISBLANK(E53),0,IF(Answers!E53=E53,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>33</v>
@@ -8499,8 +8819,52 @@
       <c r="M53" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N53" s="42" cm="1">
+        <f t="array" aca="1" ref="N53" ca="1">COLUMN(INDIRECT(G53))</f>
+        <v>1</v>
+      </c>
+      <c r="O53" s="42" cm="1">
+        <f t="array" aca="1" ref="O53" ca="1">ROW(INDIRECT(G53))</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="42" cm="1">
+        <f t="array" aca="1" ref="P53" ca="1">COLUMN(INDIRECT(H53))</f>
+        <v>2</v>
+      </c>
+      <c r="Q53" s="42" cm="1">
+        <f t="array" aca="1" ref="Q53" ca="1">ROW(INDIRECT(H53))</f>
+        <v>3</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S53" s="2" cm="1">
+        <f t="array" aca="1" ref="S53" ca="1">IFERROR((ROW(INDIRECT(I53))-$O$48)/(COLUMN(INDIRECT(I53))-$N$48),1E+300)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="T53" s="2" cm="1">
+        <f t="array" aca="1" ref="T53" ca="1">IFERROR((ROW(INDIRECT(J53))-$O$48)/(COLUMN(INDIRECT(J53))-$N$48),1E+300)</f>
+        <v>2</v>
+      </c>
+      <c r="U53" s="2" cm="1">
+        <f t="array" aca="1" ref="U53" ca="1">IFERROR((ROW(INDIRECT(K53))-$O$48)/(COLUMN(INDIRECT(K53))-$N$48),1E+300)</f>
+        <v>2</v>
+      </c>
+      <c r="V53" s="2" cm="1">
+        <f t="array" aca="1" ref="V53" ca="1">IFERROR((ROW(INDIRECT(L53))-$O$48)/(COLUMN(INDIRECT(L53))-$N$48),1E+300)</f>
+        <v>3.1907216494845363</v>
+      </c>
+      <c r="W53" s="2" cm="1">
+        <f t="array" aca="1" ref="W53" ca="1">IFERROR((ROW(INDIRECT(M53))-$O$48)/(COLUMN(INDIRECT(M53))-$N$48),1E+300)</f>
+        <v>2</v>
+      </c>
+      <c r="X53" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X53" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I53:M53,IFERROR($R53=S53:W53,0)))</f>
+        <v>EM285; Q33; IY517</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="24.75" customHeight="1">
       <c r="B54" s="11">
         <v>15</v>
       </c>
@@ -8510,10 +8874,12 @@
       <c r="D54" s="10">
         <v>2</v>
       </c>
-      <c r="E54" s="35"/>
+      <c r="E54" s="35" t="s">
+        <v>721</v>
+      </c>
       <c r="F54" s="25">
         <f>IF(ISBLANK(E54),0,IF(ISNUMBER(SEARCH(E54,Answers!E54)),1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>33</v>
@@ -8536,8 +8902,52 @@
       <c r="M54" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N54" s="42" cm="1">
+        <f t="array" aca="1" ref="N54" ca="1">COLUMN(INDIRECT(G54))</f>
+        <v>1</v>
+      </c>
+      <c r="O54" s="42" cm="1">
+        <f t="array" aca="1" ref="O54" ca="1">ROW(INDIRECT(G54))</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="42" cm="1">
+        <f t="array" aca="1" ref="P54" ca="1">COLUMN(INDIRECT(H54))</f>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="42" cm="1">
+        <f t="array" aca="1" ref="Q54" ca="1">ROW(INDIRECT(H54))</f>
+        <v>8</v>
+      </c>
+      <c r="R54" s="2">
+        <f ca="1">IFERROR((Q54-O54)/(P54-N54),1E+300)</f>
+        <v>1.0000000000000001E+300</v>
+      </c>
+      <c r="S54" s="2" cm="1">
+        <f t="array" aca="1" ref="S54" ca="1">IFERROR((ROW(INDIRECT(I54))-$O$48)/(COLUMN(INDIRECT(I54))-$N$48),1E+300)</f>
+        <v>0.76644736842105265</v>
+      </c>
+      <c r="T54" s="2" cm="1">
+        <f t="array" aca="1" ref="T54" ca="1">IFERROR((ROW(INDIRECT(J54))-$O$48)/(COLUMN(INDIRECT(J54))-$N$48),1E+300)</f>
+        <v>1.0000000000000001E+300</v>
+      </c>
+      <c r="U54" s="2" cm="1">
+        <f t="array" aca="1" ref="U54" ca="1">IFERROR((ROW(INDIRECT(K54))-$O$48)/(COLUMN(INDIRECT(K54))-$N$48),1E+300)</f>
+        <v>1.0000000000000001E+300</v>
+      </c>
+      <c r="V54" s="2" cm="1">
+        <f t="array" aca="1" ref="V54" ca="1">IFERROR((ROW(INDIRECT(L54))-$O$48)/(COLUMN(INDIRECT(L54))-$N$48),1E+300)</f>
+        <v>8.6405529953917051E-2</v>
+      </c>
+      <c r="W54" s="2" cm="1">
+        <f t="array" aca="1" ref="W54" ca="1">IFERROR((ROW(INDIRECT(M54))-$O$48)/(COLUMN(INDIRECT(M54))-$N$48),1E+300)</f>
+        <v>5.4262295081967213</v>
+      </c>
+      <c r="X54" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X54" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I54:M54,IFERROR($R54=S54:W54,0)))</f>
+        <v>A5839; A467</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="24.75" customHeight="1">
       <c r="B55" s="11">
         <v>16</v>
       </c>
@@ -8547,10 +8957,12 @@
       <c r="D55" s="10">
         <v>2</v>
       </c>
-      <c r="E55" s="35"/>
+      <c r="E55" s="35" t="s">
+        <v>614</v>
+      </c>
       <c r="F55" s="25">
         <f>IF(ISBLANK(E55),0,IF(Answers!E55=E55,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>33</v>
@@ -8573,8 +8985,52 @@
       <c r="M55" s="27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N55" s="42" cm="1">
+        <f t="array" aca="1" ref="N55" ca="1">COLUMN(INDIRECT(G55))</f>
+        <v>1</v>
+      </c>
+      <c r="O55" s="42" cm="1">
+        <f t="array" aca="1" ref="O55" ca="1">ROW(INDIRECT(G55))</f>
+        <v>1</v>
+      </c>
+      <c r="P55" s="42" cm="1">
+        <f t="array" aca="1" ref="P55" ca="1">COLUMN(INDIRECT(H55))</f>
+        <v>6</v>
+      </c>
+      <c r="Q55" s="42" cm="1">
+        <f t="array" aca="1" ref="Q55" ca="1">ROW(INDIRECT(H55))</f>
+        <v>6</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S55" s="2" cm="1">
+        <f t="array" aca="1" ref="S55" ca="1">IFERROR((ROW(INDIRECT(I55))-$O$48)/(COLUMN(INDIRECT(I55))-$N$48),1E+300)</f>
+        <v>1</v>
+      </c>
+      <c r="T55" s="2" cm="1">
+        <f t="array" aca="1" ref="T55" ca="1">IFERROR((ROW(INDIRECT(J55))-$O$48)/(COLUMN(INDIRECT(J55))-$N$48),1E+300)</f>
+        <v>1.0000000000000001E+300</v>
+      </c>
+      <c r="U55" s="2" cm="1">
+        <f t="array" aca="1" ref="U55" ca="1">IFERROR((ROW(INDIRECT(K55))-$O$48)/(COLUMN(INDIRECT(K55))-$N$48),1E+300)</f>
+        <v>1</v>
+      </c>
+      <c r="V55" s="2" cm="1">
+        <f t="array" aca="1" ref="V55" ca="1">IFERROR((ROW(INDIRECT(L55))-$O$48)/(COLUMN(INDIRECT(L55))-$N$48),1E+300)</f>
+        <v>0.49715099715099714</v>
+      </c>
+      <c r="W55" s="2" cm="1">
+        <f t="array" aca="1" ref="W55" ca="1">IFERROR((ROW(INDIRECT(M55))-$O$48)/(COLUMN(INDIRECT(M55))-$N$48),1E+300)</f>
+        <v>0.47085714285714286</v>
+      </c>
+      <c r="X55" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X55" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I55:M55,IFERROR($R55=S55:W55,0)))</f>
+        <v>XB626; EQD3826</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="24.75" customHeight="1">
       <c r="B56" s="11">
         <v>17</v>
       </c>
@@ -8584,10 +9040,12 @@
       <c r="D56" s="10">
         <v>2</v>
       </c>
-      <c r="E56" s="35"/>
+      <c r="E56" s="35" t="s">
+        <v>615</v>
+      </c>
       <c r="F56" s="25">
         <f>IF(ISBLANK(E56),0,IF(Answers!E56=E56,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>33</v>
@@ -8610,8 +9068,52 @@
       <c r="M56" s="27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N56" s="42" cm="1">
+        <f t="array" aca="1" ref="N56" ca="1">COLUMN(INDIRECT(G56))</f>
+        <v>1</v>
+      </c>
+      <c r="O56" s="42" cm="1">
+        <f t="array" aca="1" ref="O56" ca="1">ROW(INDIRECT(G56))</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="42" cm="1">
+        <f t="array" aca="1" ref="P56" ca="1">COLUMN(INDIRECT(H56))</f>
+        <v>9</v>
+      </c>
+      <c r="Q56" s="42" cm="1">
+        <f t="array" aca="1" ref="Q56" ca="1">ROW(INDIRECT(H56))</f>
+        <v>8</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="S56" s="2" cm="1">
+        <f t="array" aca="1" ref="S56" ca="1">IFERROR((ROW(INDIRECT(I56))-$O$48)/(COLUMN(INDIRECT(I56))-$N$48),1E+300)</f>
+        <v>1.4928909952606635</v>
+      </c>
+      <c r="T56" s="2" cm="1">
+        <f t="array" aca="1" ref="T56" ca="1">IFERROR((ROW(INDIRECT(J56))-$O$48)/(COLUMN(INDIRECT(J56))-$N$48),1E+300)</f>
+        <v>0.875</v>
+      </c>
+      <c r="U56" s="2" cm="1">
+        <f t="array" aca="1" ref="U56" ca="1">IFERROR((ROW(INDIRECT(K56))-$O$48)/(COLUMN(INDIRECT(K56))-$N$48),1E+300)</f>
+        <v>0.875</v>
+      </c>
+      <c r="V56" s="2" cm="1">
+        <f t="array" aca="1" ref="V56" ca="1">IFERROR((ROW(INDIRECT(L56))-$O$48)/(COLUMN(INDIRECT(L56))-$N$48),1E+300)</f>
+        <v>0.35101404056162244</v>
+      </c>
+      <c r="W56" s="2" cm="1">
+        <f t="array" aca="1" ref="W56" ca="1">IFERROR((ROW(INDIRECT(M56))-$O$48)/(COLUMN(INDIRECT(M56))-$N$48),1E+300)</f>
+        <v>1.7852028639618138</v>
+      </c>
+      <c r="X56" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X56" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I56:M56,IFERROR($R56=S56:W56,0)))</f>
+        <v>KC253; CMK2080</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="24.75" customHeight="1">
       <c r="B57" s="11">
         <v>18</v>
       </c>
@@ -8621,10 +9123,12 @@
       <c r="D57" s="10">
         <v>2</v>
       </c>
-      <c r="E57" s="35"/>
+      <c r="E57" s="35" t="s">
+        <v>616</v>
+      </c>
       <c r="F57" s="25">
         <f>IF(ISBLANK(E57),0,IF(Answers!E57=E57,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>33</v>
@@ -8647,8 +9151,52 @@
       <c r="M57" s="27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N57" s="42" cm="1">
+        <f t="array" aca="1" ref="N57" ca="1">COLUMN(INDIRECT(G57))</f>
+        <v>1</v>
+      </c>
+      <c r="O57" s="42" cm="1">
+        <f t="array" aca="1" ref="O57" ca="1">ROW(INDIRECT(G57))</f>
+        <v>1</v>
+      </c>
+      <c r="P57" s="42" cm="1">
+        <f t="array" aca="1" ref="P57" ca="1">COLUMN(INDIRECT(H57))</f>
+        <v>5</v>
+      </c>
+      <c r="Q57" s="42" cm="1">
+        <f t="array" aca="1" ref="Q57" ca="1">ROW(INDIRECT(H57))</f>
+        <v>4</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="S57" s="2" cm="1">
+        <f t="array" aca="1" ref="S57" ca="1">IFERROR((ROW(INDIRECT(I57))-$O$48)/(COLUMN(INDIRECT(I57))-$N$48),1E+300)</f>
+        <v>0.73993808049535603</v>
+      </c>
+      <c r="T57" s="2" cm="1">
+        <f t="array" aca="1" ref="T57" ca="1">IFERROR((ROW(INDIRECT(J57))-$O$48)/(COLUMN(INDIRECT(J57))-$N$48),1E+300)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U57" s="2" cm="1">
+        <f t="array" aca="1" ref="U57" ca="1">IFERROR((ROW(INDIRECT(K57))-$O$48)/(COLUMN(INDIRECT(K57))-$N$48),1E+300)</f>
+        <v>0.3510204081632653</v>
+      </c>
+      <c r="V57" s="2" cm="1">
+        <f t="array" aca="1" ref="V57" ca="1">IFERROR((ROW(INDIRECT(L57))-$O$48)/(COLUMN(INDIRECT(L57))-$N$48),1E+300)</f>
+        <v>0.75</v>
+      </c>
+      <c r="W57" s="2" cm="1">
+        <f t="array" aca="1" ref="W57" ca="1">IFERROR((ROW(INDIRECT(M57))-$O$48)/(COLUMN(INDIRECT(M57))-$N$48),1E+300)</f>
+        <v>0.77757009345794392</v>
+      </c>
+      <c r="X57" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X57" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I57:M57,IFERROR($R57=S57:W57,0)))</f>
+        <v>DLQ2275; DCW2104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="24.75" customHeight="1">
       <c r="B58" s="11">
         <v>19</v>
       </c>
@@ -8658,10 +9206,12 @@
       <c r="D58" s="10">
         <v>2</v>
       </c>
-      <c r="E58" s="35"/>
+      <c r="E58" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="F58" s="25">
         <f>IF(ISBLANK(E58),0,IF(Answers!E58=E58,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>33</v>
@@ -8684,8 +9234,52 @@
       <c r="M58" s="27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" ht="24.75" customHeight="1">
+      <c r="N58" s="42" cm="1">
+        <f t="array" aca="1" ref="N58" ca="1">COLUMN(INDIRECT(G58))</f>
+        <v>1</v>
+      </c>
+      <c r="O58" s="42" cm="1">
+        <f t="array" aca="1" ref="O58" ca="1">ROW(INDIRECT(G58))</f>
+        <v>1</v>
+      </c>
+      <c r="P58" s="42" cm="1">
+        <f t="array" aca="1" ref="P58" ca="1">COLUMN(INDIRECT(H58))</f>
+        <v>2</v>
+      </c>
+      <c r="Q58" s="42" cm="1">
+        <f t="array" aca="1" ref="Q58" ca="1">ROW(INDIRECT(H58))</f>
+        <v>2</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S58" s="2" cm="1">
+        <f t="array" aca="1" ref="S58" ca="1">IFERROR((ROW(INDIRECT(I58))-$O$48)/(COLUMN(INDIRECT(I58))-$N$48),1E+300)</f>
+        <v>0.75</v>
+      </c>
+      <c r="T58" s="2" cm="1">
+        <f t="array" aca="1" ref="T58" ca="1">IFERROR((ROW(INDIRECT(J58))-$O$48)/(COLUMN(INDIRECT(J58))-$N$48),1E+300)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U58" s="2" cm="1">
+        <f t="array" aca="1" ref="U58" ca="1">IFERROR((ROW(INDIRECT(K58))-$O$48)/(COLUMN(INDIRECT(K58))-$N$48),1E+300)</f>
+        <v>5.1186440677966099</v>
+      </c>
+      <c r="V58" s="2" cm="1">
+        <f t="array" aca="1" ref="V58" ca="1">IFERROR((ROW(INDIRECT(L58))-$O$48)/(COLUMN(INDIRECT(L58))-$N$48),1E+300)</f>
+        <v>3.5547445255474455</v>
+      </c>
+      <c r="W58" s="2" cm="1">
+        <f t="array" aca="1" ref="W58" ca="1">IFERROR((ROW(INDIRECT(M58))-$O$48)/(COLUMN(INDIRECT(M58))-$N$48),1E+300)</f>
+        <v>1</v>
+      </c>
+      <c r="X58" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X58" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I58:M58,IFERROR($R58=S58:W58,0)))</f>
+        <v>XFD16384</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="24.75" customHeight="1">
       <c r="B59" s="11">
         <v>20</v>
       </c>
@@ -8695,10 +9289,12 @@
       <c r="D59" s="10">
         <v>2</v>
       </c>
-      <c r="E59" s="35"/>
+      <c r="E59" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="F59" s="25">
         <f>IF(ISBLANK(E59),0,IF(Answers!E59=E59,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>33</v>
@@ -8721,12 +9317,56 @@
       <c r="M59" s="27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" ht="15" customHeight="1">
+      <c r="N59" s="42" cm="1">
+        <f t="array" aca="1" ref="N59" ca="1">COLUMN(INDIRECT(G59))</f>
+        <v>1</v>
+      </c>
+      <c r="O59" s="42" cm="1">
+        <f t="array" aca="1" ref="O59" ca="1">ROW(INDIRECT(G59))</f>
+        <v>1</v>
+      </c>
+      <c r="P59" s="42" cm="1">
+        <f t="array" aca="1" ref="P59" ca="1">COLUMN(INDIRECT(H59))</f>
+        <v>5</v>
+      </c>
+      <c r="Q59" s="42" cm="1">
+        <f t="array" aca="1" ref="Q59" ca="1">ROW(INDIRECT(H59))</f>
+        <v>3</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="S59" s="2" cm="1">
+        <f t="array" aca="1" ref="S59" ca="1">IFERROR((ROW(INDIRECT(I59))-$O$48)/(COLUMN(INDIRECT(I59))-$N$48),1E+300)</f>
+        <v>2.8647342995169081</v>
+      </c>
+      <c r="T59" s="2" cm="1">
+        <f t="array" aca="1" ref="T59" ca="1">IFERROR((ROW(INDIRECT(J59))-$O$48)/(COLUMN(INDIRECT(J59))-$N$48),1E+300)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U59" s="2" cm="1">
+        <f t="array" aca="1" ref="U59" ca="1">IFERROR((ROW(INDIRECT(K59))-$O$48)/(COLUMN(INDIRECT(K59))-$N$48),1E+300)</f>
+        <v>0.15447154471544716</v>
+      </c>
+      <c r="V59" s="2" cm="1">
+        <f t="array" aca="1" ref="V59" ca="1">IFERROR((ROW(INDIRECT(L59))-$O$48)/(COLUMN(INDIRECT(L59))-$N$48),1E+300)</f>
+        <v>0.49115646258503404</v>
+      </c>
+      <c r="W59" s="2" cm="1">
+        <f t="array" aca="1" ref="W59" ca="1">IFERROR((ROW(INDIRECT(M59))-$O$48)/(COLUMN(INDIRECT(M59))-$N$48),1E+300)</f>
+        <v>1</v>
+      </c>
+      <c r="X59" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="X59" ca="1">_xlfn.TEXTJOIN("; ",TRUE,_xlfn._xlws.FILTER(I59:M59,IFERROR($R59=S59:W59,0)))</f>
+        <v>ESW1949</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="15" customHeight="1">
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="2:13" ht="15" customHeight="1" thickBot="1"/>
-    <row r="62" spans="2:13" ht="25.5" customHeight="1" thickBot="1">
+    <row r="61" spans="2:24" ht="15" customHeight="1" thickBot="1"/>
+    <row r="62" spans="2:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="B62" s="29" t="s">
         <v>3</v>
       </c>
@@ -8735,8 +9375,8 @@
       </c>
       <c r="D62" s="23"/>
     </row>
-    <row r="63" spans="2:13" ht="14.85" customHeight="1"/>
-    <row r="64" spans="2:13" ht="14.85" customHeight="1">
+    <row r="63" spans="2:24" ht="14.85" customHeight="1"/>
+    <row r="64" spans="2:24" ht="14.85" customHeight="1">
       <c r="B64" s="6" t="s">
         <v>693</v>
       </c>
@@ -11688,7 +12328,9 @@
   </sheetPr>
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.703125" defaultRowHeight="14.4"/>
   <cols>
@@ -11719,25 +12361,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="60.75" customHeight="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -11750,67 +12392,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="2:18" ht="48.75" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -11871,16 +12513,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="2:18" ht="31.5" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -11896,16 +12538,16 @@
         <v>159</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="50" t="s">
         <v>591</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="2:18" ht="42" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -11921,16 +12563,16 @@
         <v>145</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="2:18" ht="31.5" customHeight="1">
       <c r="B14" s="13" t="s">
@@ -11946,16 +12588,16 @@
         <v>-532.857736549165</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="2:18" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -11989,14 +12631,14 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
@@ -12008,14 +12650,14 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">

--- a/Sniper GOAT.xlsx
+++ b/Sniper GOAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80869AF-D96F-49C1-8D81-06FDE5CDEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD9F1CA-FC23-49F9-9674-22DBF20AB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E63FEAF0-1E5E-4907-9FA7-7687370CAB07}"/>
   </bookViews>
@@ -2973,6 +2973,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2999,9 +3002,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3452,25 +3452,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="60.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -3483,67 +3483,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
     </row>
     <row r="5" spans="2:18" ht="48.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -3605,16 +3605,16 @@
         <f>IF(ISBLANK(E11),0,IF(Answers!E11=E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="2:18" ht="31.5" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -3631,16 +3631,16 @@
         <f>IF(ISBLANK(E12),0,IF(Answers!E12=E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>591</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="2:18" ht="42" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -3657,16 +3657,16 @@
         <f>IF(ISBLANK(E13),0,IF(Answers!E13=E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="2:18" ht="31.5" customHeight="1">
       <c r="B14" s="13" t="s">
@@ -3683,16 +3683,16 @@
         <f>IF(ISBLANK(E14),0,IF(Answers!E14=E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
     </row>
     <row r="15" spans="2:18" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -3726,17 +3726,17 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="61" t="str" cm="1">
+      <c r="I17" s="62" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>0/270</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
@@ -3748,14 +3748,14 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
@@ -7535,8 +7535,8 @@
   </sheetPr>
   <dimension ref="A2:NUF484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R74" sqref="R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.703125" defaultRowHeight="14.4"/>
@@ -7568,25 +7568,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="60.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" spans="2:60" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -7599,67 +7599,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:60" ht="24" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>660</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
     </row>
     <row r="5" spans="2:60" ht="48.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>663</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="2:60" ht="25.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>661</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="2:60" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -7722,28 +7722,28 @@
         <f>IF(ISBLANK(E11),0,IF(Answers!E11=E11,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="N11" s="60" t="s">
+      <c r="N11" s="61" t="s">
         <v>670</v>
       </c>
       <c r="AQ11" s="50" t="s">
@@ -7777,28 +7777,28 @@
         <f>IF(ISBLANK(E12),0,IF(Answers!E12=E12,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>671</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="N12" s="60" t="s">
+      <c r="N12" s="61" t="s">
         <v>670</v>
       </c>
       <c r="AR12" s="2" t="str" cm="1">
@@ -7851,28 +7851,28 @@
         <f>IF(ISBLANK(E13),0,IF(Answers!E13=E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="59" t="s">
         <v>674</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="61" t="s">
         <v>670</v>
       </c>
       <c r="AR13" s="2" t="str">
@@ -7925,28 +7925,28 @@
         <f>IF(ISBLANK(E14),0,IF(Answers!E14=E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="59" t="s">
         <v>672</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="61" t="s">
         <v>670</v>
       </c>
       <c r="AR14" s="2" t="str">
@@ -8072,12 +8072,12 @@
       </c>
     </row>
     <row r="17" spans="2:53" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="61" t="str" cm="1">
+      <c r="I17" s="62" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>90/270</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2" t="str">
         <v>F6</v>
@@ -8111,9 +8111,9 @@
       </c>
     </row>
     <row r="18" spans="2:53" ht="15" thickBot="1">
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
       <c r="AR18" s="2" t="str">
         <v>I8</v>
       </c>
@@ -8155,9 +8155,9 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
       <c r="AR19" s="2" t="str">
         <v>E4</v>
       </c>
@@ -8190,9 +8190,9 @@
       </c>
     </row>
     <row r="20" spans="2:53" ht="15" customHeight="1">
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
       <c r="AR20" s="2" t="str">
         <v>A2</v>
       </c>
@@ -51645,19 +51645,19 @@
         <v>102</v>
       </c>
       <c r="N74" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="N74" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.ANCHORARRAY(Q74),Q73:AMB73)))</f>
+        <f t="array" aca="1" ref="N74" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($Q$74:Q74)),_xlfn.ANCHORARRAY($Q$73))))</f>
         <v>#N/A</v>
       </c>
       <c r="O74" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="O74" ca="1">_xlfn.XMATCH(INDEX(_xlfn.ANCHORARRAY(Q74),,N74),_xlfn.ANCHORARRAY(Q73))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P74" s="42" t="b">
-        <f t="shared" ref="P74:P77" ca="1" si="3">_xlfn.IFNA(O74/10=N74-1,FALSE)</f>
+        <f t="array" aca="1" ref="O74" ca="1">_xlfn.XMATCH(INDEX(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($N$74:N74)),,N74),_xlfn.ANCHORARRAY($Q$73))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P74" s="42" t="b" cm="1">
+        <f t="array" aca="1" ref="P74:P78" ca="1">_xlfn.IFNA(O74:O78/10=N74:N78-1,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q74" s="67" t="str" cm="1">
-        <f t="array" aca="1" ref="Q74:AMB74" ca="1">ADDRESS(ROW(INDIRECT(INDEX(I73:I84, N72))), COLUMN(INDIRECT(INDEX(I73:I84, N72))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
+      <c r="Q74" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="Q74:AMB78" ca="1">ADDRESS(ROW(INDIRECT(INDEX(I73:M84, $N$72,_xlfn.SEQUENCE(5)))), COLUMN(INDIRECT(INDEX(I73:M84, $N$72,_xlfn.SEQUENCE(5)))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
         <v>WH8</v>
       </c>
       <c r="R74" s="42" t="str">
@@ -55696,19 +55696,19 @@
         <v>129</v>
       </c>
       <c r="N75" s="42" cm="1">
-        <f t="array" aca="1" ref="N75" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.ANCHORARRAY(Q75),Q73:AMB73)))</f>
+        <f t="array" aca="1" ref="N75" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($Q$74:Q75)),_xlfn.ANCHORARRAY($Q$73))))</f>
         <v>73</v>
       </c>
       <c r="O75" s="42" cm="1">
-        <f t="array" aca="1" ref="O75" ca="1">_xlfn.XMATCH(INDEX(_xlfn.ANCHORARRAY(Q75),,N75),_xlfn.ANCHORARRAY(Q73))</f>
+        <f t="array" aca="1" ref="O75" ca="1">_xlfn.XMATCH(INDEX(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($N$74:N75)),,N75),_xlfn.ANCHORARRAY($Q$73))</f>
         <v>720</v>
       </c>
       <c r="P75" s="42" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="Q75" s="48" t="str" cm="1">
-        <f t="array" aca="1" ref="Q75:AMB75" ca="1">ADDRESS(ROW(INDIRECT(INDEX(J73:J84, N72))), COLUMN(INDIRECT(INDEX(J73:J84, N72))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
+      <c r="Q75" s="48" t="str">
+        <f ca="1"/>
         <v>DDA6481</v>
       </c>
       <c r="R75" s="42" t="str">
@@ -59747,19 +59747,19 @@
         <v>133</v>
       </c>
       <c r="N76" s="42" cm="1">
-        <f t="array" aca="1" ref="N76" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.ANCHORARRAY(Q76),Q73:AMB73)))</f>
+        <f t="array" aca="1" ref="N76" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($Q$74:Q76)),_xlfn.ANCHORARRAY($Q$73))))</f>
         <v>7</v>
       </c>
       <c r="O76" s="42" cm="1">
-        <f t="array" aca="1" ref="O76" ca="1">_xlfn.XMATCH(INDEX(_xlfn.ANCHORARRAY(Q76),,N76),_xlfn.ANCHORARRAY(Q73))</f>
+        <f t="array" aca="1" ref="O76" ca="1">_xlfn.XMATCH(INDEX(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($N$74:N76)),,N76),_xlfn.ANCHORARRAY($Q$73))</f>
         <v>60</v>
       </c>
       <c r="P76" s="42" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="Q76" s="48" t="str" cm="1">
-        <f t="array" aca="1" ref="Q76:AMB76" ca="1">ADDRESS(ROW(INDIRECT(INDEX(K73:K84, N72))), COLUMN(INDIRECT(INDEX(K73:K84, N72))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
+      <c r="Q76" s="48" t="str">
+        <f ca="1"/>
         <v>IA541</v>
       </c>
       <c r="R76" s="42" t="str">
@@ -63798,19 +63798,19 @@
         <v>126</v>
       </c>
       <c r="N77" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="N77" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.ANCHORARRAY(Q77),Q73:AMB73)))</f>
+        <f t="array" aca="1" ref="N77" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($Q$74:Q77)),_xlfn.ANCHORARRAY($Q$73))))</f>
         <v>#N/A</v>
       </c>
       <c r="O77" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="O77" ca="1">_xlfn.XMATCH(INDEX(_xlfn.ANCHORARRAY(Q77),,N77),_xlfn.ANCHORARRAY(Q73))</f>
+        <f t="array" aca="1" ref="O77" ca="1">_xlfn.XMATCH(INDEX(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($N$74:N77)),,N77),_xlfn.ANCHORARRAY($Q$73))</f>
         <v>#N/A</v>
       </c>
       <c r="P77" s="42" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="48" t="str" cm="1">
-        <f t="array" aca="1" ref="Q77:AMB77" ca="1">ADDRESS(ROW(INDIRECT(INDEX(L73:L84, N72))), COLUMN(INDIRECT(INDEX(L73:L84, N72))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
+      <c r="Q77" s="48" t="str">
+        <f ca="1"/>
         <v>RJ9</v>
       </c>
       <c r="R77" s="42" t="str">
@@ -67849,19 +67849,19 @@
         <v>113</v>
       </c>
       <c r="N78" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="N78" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.ANCHORARRAY(Q78),Q73:AMB73)))</f>
+        <f t="array" aca="1" ref="N78" ca="1">_xlfn.XMATCH(TRUE,ISNUMBER(_xlfn.XMATCH(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($Q$74:Q78)),_xlfn.ANCHORARRAY($Q$73))))</f>
         <v>#N/A</v>
       </c>
       <c r="O78" s="42" t="e" cm="1">
-        <f t="array" aca="1" ref="O78" ca="1">_xlfn.XMATCH(INDEX(_xlfn.ANCHORARRAY(Q78),,N78),_xlfn.ANCHORARRAY(Q73))</f>
+        <f t="array" aca="1" ref="O78" ca="1">_xlfn.XMATCH(INDEX(_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY($Q$74),ROWS($N$74:N78)),,N78),_xlfn.ANCHORARRAY($Q$73))</f>
         <v>#N/A</v>
       </c>
       <c r="P78" s="42" t="b">
-        <f ca="1">_xlfn.IFNA(O78/10=N78-1,FALSE)</f>
+        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="48" t="str" cm="1">
-        <f t="array" aca="1" ref="Q78:AMB78" ca="1">ADDRESS(ROW(INDIRECT(INDEX(M73:M84, N72))), COLUMN(INDIRECT(INDEX(M73:M84, N72))) + _xlfn.SEQUENCE(1, 1000, 0, 1), 4)</f>
+      <c r="Q78" s="48" t="str">
+        <f ca="1"/>
         <v>VC26</v>
       </c>
       <c r="R78" s="42" t="str">
@@ -72135,7 +72135,10 @@
       <c r="M84" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="N84" s="42"/>
+      <c r="N84" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="N84" ca="1">INDEX(Q75:AMB75,,720)</f>
+        <v>EER6481</v>
+      </c>
       <c r="P84" s="42"/>
       <c r="Q84" s="48">
         <v>6</v>
@@ -78924,25 +78927,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="60.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
       <c r="B3" s="1"/>
@@ -78955,67 +78958,67 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:18" ht="24" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
     </row>
     <row r="5" spans="2:18" ht="48.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -79076,16 +79079,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="2:18" ht="31.5" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -79101,16 +79104,16 @@
         <v>159</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>591</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="2:18" ht="42" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -79126,16 +79129,16 @@
         <v>145</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="2:18" ht="31.5" customHeight="1">
       <c r="B14" s="13" t="s">
@@ -79151,16 +79154,16 @@
         <v>-532.857736549165</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
     </row>
     <row r="15" spans="2:18" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -79194,14 +79197,14 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B19" s="29" t="s">
@@ -79213,14 +79216,14 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="G19"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
